--- a/Schedule_Format/Format.xlsx
+++ b/Schedule_Format/Format.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week" sheetId="1" r:id="rId1"/>
+    <sheet name="Month" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -68,6 +69,407 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プロジェクト名：</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ＸＸＸＸＸプロジェクト</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>注意事項</t>
+    <rPh sb="0" eb="4">
+      <t>チュウイジコウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>②分類</t>
+    <rPh sb="1" eb="3">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>③目標／項目</t>
+    <rPh sb="1" eb="3">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>④</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>目標１：ＸＸＸＸの小型化</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コガタカ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>でその月の実施予定を塗る</t>
+    <rPh sb="3" eb="4">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1-1 市場調査</t>
+    <rPh sb="4" eb="6">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1-2 ＸＸＸの選定</t>
+    <rPh sb="8" eb="10">
+      <t>センテイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1-3 設計</t>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1-4 組立</t>
+    <rPh sb="4" eb="6">
+      <t>クミタテ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1-5 テスト</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1-6 修正</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1-7 完成</t>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>目標2：ＸＸＸＸ</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>2-1 XXXXXX</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>2-2 XXXXXX</t>
+  </si>
+  <si>
+    <t>2-3 XXXXXX</t>
+  </si>
+  <si>
+    <t>2-4 XXXXXX</t>
+  </si>
+  <si>
+    <t>2-5 XXXXXX</t>
+  </si>
+  <si>
+    <t>目標3：ＸＸＸＸ</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>3-1 XXXXXX</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>3-2 XXXXXX</t>
+  </si>
+  <si>
+    <t>3-3 XXXXXX</t>
+  </si>
+  <si>
+    <t>3-4 XXXXXX</t>
+  </si>
+  <si>
+    <t>3-5 XXXXXX</t>
+  </si>
+  <si>
+    <t>ｘｘ班</t>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>目標１：ＸＸＸＸ</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1-1 XXXXXX</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1-2 XXXXXX</t>
+  </si>
+  <si>
+    <t>1-3 XXXXXX</t>
+  </si>
+  <si>
+    <t>1-4 XXXXXX</t>
+  </si>
+  <si>
+    <t>1-5 XXXXXX</t>
+  </si>
+  <si>
+    <t>2-1 XXXXXX</t>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
@@ -76,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日(&quot;aaa&quot;)&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +508,208 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF66CC"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +728,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -163,11 +789,460 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -175,9 +1250,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -187,8 +1260,318 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -469,14 +1852,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C5"/>
+      <selection pane="bottomRight" activeCell="C63" sqref="C63:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -514,7 +1897,7 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3"/>
@@ -523,278 +1906,2163 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="5">
+      <c r="B3" s="109">
         <v>43364</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="5"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="5"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="5">
+      <c r="B6" s="110"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="111"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="109">
         <v>43371</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="5">
+      <c r="B9" s="110"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="110"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="110"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="111"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="109">
         <v>43378</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="5">
+      <c r="C13" s="6"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="110"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="110"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="110"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="111"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="109">
         <v>43385</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="5">
+      <c r="C18" s="6"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="110"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="110"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="110"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="111"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="109">
         <v>43392</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="5">
+      <c r="C23" s="6"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="110"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="110"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="110"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="111"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="109">
         <v>43399</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="5">
+      <c r="C28" s="6"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="110"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="110"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="110"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="111"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="109">
         <v>43406</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="5">
+      <c r="C33" s="6"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="110"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="110"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="110"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="111"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="109">
         <v>43413</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="5">
-        <v>43414</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="5">
-        <v>43415</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E41" s="9"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="110"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="110"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="110"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="111"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="109">
+        <v>43420</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="110"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="110"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="110"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="111"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="109">
+        <v>43427</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="110"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="110"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="110"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="111"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="109">
+        <v>43434</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="110"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="110"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="110"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="111"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="109">
+        <v>43441</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="110"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="110"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="110"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="111"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="109">
+        <v>43448</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="110"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="110"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="110"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="111"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
+  <mergeCells count="53">
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI41"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.58203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="4.08203125" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.9140625" customWidth="1"/>
+    <col min="8" max="8" width="4.4140625" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="3.75" customWidth="1"/>
+    <col min="11" max="11" width="3.9140625" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.25" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="17" width="3.75" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" customWidth="1"/>
+    <col min="19" max="19" width="4.58203125" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" customWidth="1"/>
+    <col min="21" max="21" width="4.33203125" customWidth="1"/>
+    <col min="22" max="22" width="4.58203125" customWidth="1"/>
+    <col min="23" max="23" width="4.25" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" customWidth="1"/>
+    <col min="25" max="25" width="3.5" customWidth="1"/>
+    <col min="26" max="26" width="4.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+    </row>
+    <row r="2" spans="1:35" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="11"/>
+      <c r="B2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+    </row>
+    <row r="3" spans="1:35" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+    </row>
+    <row r="4" spans="1:35" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="51"/>
+      <c r="B7" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="51"/>
+      <c r="B8" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="51"/>
+      <c r="B9" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="51"/>
+      <c r="B10" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="82"/>
+      <c r="B11" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="82"/>
+      <c r="B12" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+    </row>
+    <row r="13" spans="1:35" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="82"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="92"/>
+      <c r="B14" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="92"/>
+      <c r="B15" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="92"/>
+      <c r="B16" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="92"/>
+      <c r="B17" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="92"/>
+      <c r="B18" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="92"/>
+      <c r="B19" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+    </row>
+    <row r="20" spans="1:35" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="92"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="92"/>
+      <c r="B21" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="92"/>
+      <c r="B22" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="93"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="92"/>
+      <c r="B23" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="92"/>
+      <c r="B24" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="92"/>
+      <c r="B25" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="92"/>
+      <c r="B26" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+    </row>
+    <row r="27" spans="1:35" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="50"/>
+      <c r="AI27" s="50"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="93"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="96"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="50"/>
+      <c r="AI30" s="50"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="50"/>
+      <c r="AI31" s="50"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="51"/>
+      <c r="B32" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="50"/>
+      <c r="AI32" s="50"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50"/>
+    </row>
+    <row r="34" spans="1:35" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="82"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="96"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="92"/>
+      <c r="B35" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="96"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="92"/>
+      <c r="B36" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="93"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="96"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="50"/>
+      <c r="AI36" s="50"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="92"/>
+      <c r="B37" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="96"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="92"/>
+      <c r="B38" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="96"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="50"/>
+      <c r="AI38" s="50"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="92"/>
+      <c r="B39" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="78"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="96"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="50"/>
+      <c r="AI39" s="50"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="92"/>
+      <c r="B40" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="96"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="50"/>
+      <c r="AI40" s="50"/>
+    </row>
+    <row r="41" spans="1:35" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="101"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="106"/>
+      <c r="O41" s="106"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="105"/>
+      <c r="X41" s="104"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="96"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
+      <c r="AH41" s="50"/>
+      <c r="AI41" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>